--- a/participants/participant_40/participant_40_task_orders.xlsx
+++ b/participants/participant_40/participant_40_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731258627477" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731294541717" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1649873129455174" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731295011723" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1649873129564176" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912626227846" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912657375357" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650291265738474" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912657857673" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912658786802" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731258197482.csv</t>
+          <t>go_stims-1650291262568224.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731258457801.csv</t>
+          <t>GNG_stims-16502912625910232.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731258477492.csv</t>
+          <t>go_stims-16502912625930326.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731258617468.csv</t>
+          <t>GNG_stims-16502912626217852.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498731262950017.csv</t>
+          <t>ZB-match_6-16502912634965765.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_4-1649873126513002.csv</t>
+          <t>TB-16502912650122123.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1649873127201597.csv</t>
+          <t>OB-16502912647515936.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16498731263520412.csv</t>
+          <t>ZB-match_2-16502912632942007.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16498731294282029.csv</t>
+          <t>TB-1650291265115218.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1649873127647705.csv</t>
+          <t>ZB-match_0-1650291264204073.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1649873128592003.csv</t>
+          <t>TB-16502912657252526.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16498731284610038.csv</t>
+          <t>OB-16502912647918277.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498731291962066.csv</t>
+          <t>OB-16502912646887205.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498731294691677.csv</t>
+          <t>MM_stims-16502912657529967.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731294581747.csv</t>
+          <t>ZM_stims-16502912657404704.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731294861689.csv</t>
+          <t>MM_stims-1650291265768922.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731294701684.csv</t>
+          <t>ZM_stims-16502912657539976.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731295002067.csv</t>
+          <t>MM_stims-16502912657844229.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731294871683.csv</t>
+          <t>ZM_stims-1650291265768922.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731295041735.csv</t>
+          <t>vSAT_stims-16502912658630412.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731295161715.csv</t>
+          <t>vSAT_stims-16502912658312628.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731295481715.csv</t>
+          <t>SAT_stims-16502912657905576.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731295322056.csv</t>
+          <t>SAT_stims-16502912658150175.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_40/participant_40_task_orders.xlsx
+++ b/participants/participant_40/participant_40_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912626227846" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912657375357" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650291265738474" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912657857673" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912658786802" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650477876173526" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778773623347" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650477877363331" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778774103315" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778774733908" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650291262568224.csv</t>
+          <t>go_stims-1650477876135491.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912625910232.csv</t>
+          <t>GNG_stims-16504778761565275.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912625930326.csv</t>
+          <t>go_stims-16504778761574938.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912626217852.csv</t>
+          <t>GNG_stims-16504778761725276.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502912634965765.csv</t>
+          <t>ZB-match_3-16504778761954908.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16502912650122123.csv</t>
+          <t>ZB-match_9-16504778764075222.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502912647515936.csv</t>
+          <t>TB-16504778769953644.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502912632942007.csv</t>
+          <t>OB-16504778768455245.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1650291265115218.csv</t>
+          <t>ZB-match_0-16504778765004919.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-1650291264204073.csv</t>
+          <t>TB-1650477877011329.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502912657252526.csv</t>
+          <t>OB-16504778768885252.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16502912647918277.csv</t>
+          <t>TB-16504778773443651.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16502912646887205.csv</t>
+          <t>OB-16504778766674917.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912657529967.csv</t>
+          <t>MM_stims-16504778773773649.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912657404704.csv</t>
+          <t>ZM_stims-16504778773653316.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291265768922.csv</t>
+          <t>MM_stims-16504778773933637.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912657539976.csv</t>
+          <t>ZM_stims-16504778773773649.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912657844229.csv</t>
+          <t>MM_stims-16504778774093642.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291265768922.csv</t>
+          <t>ZM_stims-16504778773943307.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912658630412.csv</t>
+          <t>SAT_stims-1650477877426369.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912658312628.csv</t>
+          <t>vSAT_stims-16504778774574287.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912657905576.csv</t>
+          <t>SAT_stims-16504778774143324.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912658150175.csv</t>
+          <t>vSAT_stims-1650477877441391.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_40/participant_40_task_orders.xlsx
+++ b/participants/participant_40/participant_40_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650477876173526" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778773623347" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650477877363331" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778774103315" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778774733908" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961746594186" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961763554153" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961763554153" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961764114149" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961764754164" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650477876135491.csv</t>
+          <t>go_stims-16509961746193836.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778761565275.csv</t>
+          <t>GNG_stims-1650996174643414.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778761574938.csv</t>
+          <t>go_stims-1650996174643414.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778761725276.csv</t>
+          <t>GNG_stims-16509961746594186.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_3-16504778761954908.csv</t>
+          <t>TB-16509961763313882.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_9-16504778764075222.csv</t>
+          <t>OB-1650996175347419.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504778769953644.csv</t>
+          <t>ZB-match_8-16509961749313807.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778768455245.csv</t>
+          <t>ZB-match_1-16509961750273814.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778765004919.csv</t>
+          <t>OB-16509961757873776.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650477877011329.csv</t>
+          <t>ZB-match_8-1650996175227389.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16504778768885252.csv</t>
+          <t>OB-1650996175883421.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16504778773443651.csv</t>
+          <t>TB-16509961760514116.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504778766674917.csv</t>
+          <t>TB-16509961759874115.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778773773649.csv</t>
+          <t>MM_stims-16509961763794134.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778773653316.csv</t>
+          <t>ZM_stims-16509961763554153.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778773933637.csv</t>
+          <t>MM_stims-1650996176395416.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778773773649.csv</t>
+          <t>ZM_stims-16509961763794134.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778774093642.csv</t>
+          <t>MM_stims-16509961764114149.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778773943307.csv</t>
+          <t>ZM_stims-1650996176395416.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477877426369.csv</t>
+          <t>SAT_stims-16509961764274187.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778774574287.csv</t>
+          <t>vSAT_stims-16509961764434164.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778774143324.csv</t>
+          <t>vSAT_stims-16509961764594145.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477877441391.csv</t>
+          <t>SAT_stims-16509961764114149.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_40/participant_40_task_orders.xlsx
+++ b/participants/participant_40/participant_40_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961746594186" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961763554153" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961763554153" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961764114149" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961764754164" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687762942202" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687786215029" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687786225624" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687786840398" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651168778776381" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961746193836.csv</t>
+          <t>go_stims-16511687762552457.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996174643414.csv</t>
+          <t>GNG_stims-165116877627748.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650996174643414.csv</t>
+          <t>go_stims-1651168776278482.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961746594186.csv</t>
+          <t>GNG_stims-16511687762932503.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16509961763313882.csv</t>
+          <t>TB-16511687784860985.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1650996175347419.csv</t>
+          <t>OB-1651168777535989.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_8-16509961749313807.csv</t>
+          <t>OB-16511687776763244.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_1-16509961750273814.csv</t>
+          <t>ZB-match_2-16511687766329646.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16509961757873776.csv</t>
+          <t>TB-16511687785961194.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_8-1650996175227389.csv</t>
+          <t>ZB-match_2-16511687764590678.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1650996175883421.csv</t>
+          <t>TB-1651168778431206.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16509961760514116.csv</t>
+          <t>ZB-match_0-16511687765256202.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509961759874115.csv</t>
+          <t>OB-16511687777543514.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961763794134.csv</t>
+          <t>MM_stims-1651168778637545.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961763554153.csv</t>
+          <t>ZM_stims-16511687786260104.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650996176395416.csv</t>
+          <t>MM_stims-16511687786674776.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961763794134.csv</t>
+          <t>ZM_stims-1651168778638368.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961764114149.csv</t>
+          <t>MM_stims-16511687786830719.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996176395416.csv</t>
+          <t>ZM_stims-1651168778668445.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961764274187.csv</t>
+          <t>vSAT_stims-16511687787299964.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961764434164.csv</t>
+          <t>SAT_stims-16511687787149816.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961764594145.csv</t>
+          <t>SAT_stims-16511687786880698.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961764114149.csv</t>
+          <t>vSAT_stims-16511687787614784.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_40/participant_40_task_orders.xlsx
+++ b/participants/participant_40/participant_40_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687762942202" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687786215029" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687786225624" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687786840398" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651168778776381" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555999625168" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651255601335645" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512556013376544" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512556013846514" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512556014636457" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687762552457.csv</t>
+          <t>go_stims-16512555999305174.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-165116877627748.csv</t>
+          <t>GNG_stims-16512555999435182.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651168776278482.csv</t>
+          <t>go_stims-16512555999445162.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687762932503.csv</t>
+          <t>GNG_stims-165125559996052.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511687784860985.csv</t>
+          <t>ZB-match_8-16512555999785135.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1651168777535989.csv</t>
+          <t>OB-16512556009546444.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16511687776763244.csv</t>
+          <t>ZB-match_3-1651255600128664.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511687766329646.csv</t>
+          <t>TB-1651255601022649.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511687785961194.csv</t>
+          <t>OB-16512556004236436.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511687764590678.csv</t>
+          <t>ZB-match_0-16512556002586462.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1651168778431206.csv</t>
+          <t>TB-1651255601093645.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511687765256202.csv</t>
+          <t>OB-16512556003676436.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16511687777543514.csv</t>
+          <t>TB-16512556013146465.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1651168778637545.csv</t>
+          <t>MM_stims-16512556013516526.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687786260104.csv</t>
+          <t>ZM_stims-16512556013396444.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687786674776.csv</t>
+          <t>MM_stims-16512556013676443.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168778638368.csv</t>
+          <t>ZM_stims-16512556013526456.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687786830719.csv</t>
+          <t>MM_stims-16512556013836467.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168778668445.csv</t>
+          <t>ZM_stims-16512556013686452.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687787299964.csv</t>
+          <t>SAT_stims-16512556013896458.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687787149816.csv</t>
+          <t>vSAT_stims-16512556014476454.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687786880698.csv</t>
+          <t>SAT_stims-1651255601415647.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687787614784.csv</t>
+          <t>vSAT_stims-16512556014326515.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_40/participant_40_task_orders.xlsx
+++ b/participants/participant_40/participant_40_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555999625168" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651255601335645" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512556013376544" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512556013846514" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512556014636457" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RS_TO-1651589027552185" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_TO-16515890275990286" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-16515890276615295" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NB_TO-16515890296960516" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TOL_TO-1651589029742927" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,6 +429,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eyes closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eyes open</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -450,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555999305174.csv</t>
+          <t>go_stims-16515890275678012.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555999435182.csv</t>
+          <t>GNG_stims-1651589027583404.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +516,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555999445162.csv</t>
+          <t>go_stims-1651589027583404.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +526,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-165125559996052.csv</t>
+          <t>GNG_stims-16515890275990286.csv</t>
         </is>
       </c>
     </row>
@@ -489,7 +535,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515890276302774.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515890276146667.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515890275990286.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vSAT_stims-1651589027645902.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_8-16512555999785135.csv</t>
+          <t>TB-16515890293805003.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512556009546444.csv</t>
+          <t>ZB-match_1-16515890281873164.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_3-1651255600128664.csv</t>
+          <t>ZB-match_7-1651589027810048.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1651255601022649.csv</t>
+          <t>TB-16515890292836802.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16512556004236436.csv</t>
+          <t>TB-16515890296804595.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-16512556002586462.csv</t>
+          <t>OB-16515890288685343.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1651255601093645.csv</t>
+          <t>ZB-match_1-16515890285538242.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +698,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16512556003676436.csv</t>
+          <t>OB-16515890285850759.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16512556013146465.csv</t>
+          <t>OB-16515890289341435.csv</t>
         </is>
       </c>
     </row>
@@ -605,53 +717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -678,7 +744,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512556013516526.csv</t>
+          <t>MM_stims-1651589029711677.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +754,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556013396444.csv</t>
+          <t>ZM_stims-16515890296960516.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +764,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512556013676443.csv</t>
+          <t>MM_stims-16515890297273018.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +774,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556013526456.csv</t>
+          <t>ZM_stims-1651589029711677.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +784,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16512556013836467.csv</t>
+          <t>MM_stims-1651589029742927.csv</t>
         </is>
       </c>
     </row>
@@ -728,73 +794,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556013686452.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512556013896458.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512556014476454.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SAT_stims-1651255601415647.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512556014326515.csv</t>
+          <t>ZM_stims-16515890297273018.csv</t>
         </is>
       </c>
     </row>
